--- a/document/risk_management_plan.xlsx
+++ b/document/risk_management_plan.xlsx
@@ -243,25 +243,6 @@
     <t>Plan for future growth and scalability</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos narrow"/>
-      </rPr>
-      <t>Group Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos narrow"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>High Priority</t>
   </si>
   <si>
@@ -288,6 +269,9 @@
   </si>
   <si>
     <t>SCRIBE APP</t>
+  </si>
+  <si>
+    <t>Group Name:</t>
   </si>
 </sst>
 </file>
@@ -435,7 +419,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -498,6 +481,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,447 +700,447 @@
   <dimension ref="A1:M998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="18" style="19" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="32.8984375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="14" customWidth="1"/>
-    <col min="11" max="12" width="8.59765625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="32.8984375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="13" customWidth="1"/>
+    <col min="11" max="12" width="8.59765625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" style="10" customWidth="1"/>
     <col min="14" max="25" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="27.6" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="61.2" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>77</v>
+      <c r="M5" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="58.2" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="63" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="47.4" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="46.8" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="46.2" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="54" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="55.8" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1165,7 +1149,7 @@
     <row r="15" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:1" ht="14.25" customHeight="1"/>

--- a/document/risk_management_plan.xlsx
+++ b/document/risk_management_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kesiah Dupo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-hypertechs-2-0\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>SCRIBE</t>
   </si>
   <si>
     <t>Hypertechs-2.0</t>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>Project Name:</t>
+  </si>
+  <si>
+    <t>SCRIBE APP</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -733,19 +733,19 @@
     <col min="7" max="7" width="23.796875" style="11" customWidth="1"/>
     <col min="8" max="8" width="22.3984375" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.59765625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="14" customWidth="1"/>
     <col min="11" max="12" width="8.59765625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="21.296875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22.59765625" style="11" customWidth="1"/>
     <col min="14" max="25" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -760,11 +760,11 @@
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="3"/>
@@ -843,16 +843,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>16</v>
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="58.2" customHeight="1">
@@ -902,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -943,7 +943,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>27</v>
@@ -963,28 +963,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="I8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="46.8" customHeight="1">
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>27</v>
@@ -1066,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>27</v>
@@ -1101,13 +1101,13 @@
         <v>53</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>27</v>
@@ -1148,7 +1148,7 @@
         <v>61</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
